--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/a-Mc1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/a-Mc1r.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8414576666666665</v>
+        <v>0.6201396666666666</v>
       </c>
       <c r="N2">
-        <v>2.524373</v>
+        <v>1.860419</v>
       </c>
       <c r="O2">
-        <v>0.2686458884948007</v>
+        <v>0.1891028895630684</v>
       </c>
       <c r="P2">
-        <v>0.2686458884948007</v>
+        <v>0.1891028895630684</v>
       </c>
       <c r="Q2">
-        <v>0.09751260218755554</v>
+        <v>0.07186509198488888</v>
       </c>
       <c r="R2">
-        <v>0.877613419688</v>
+        <v>0.6467858278640001</v>
       </c>
       <c r="S2">
-        <v>0.2686458884948007</v>
+        <v>0.1891028895630684</v>
       </c>
       <c r="T2">
-        <v>0.2686458884948007</v>
+        <v>0.1891028895630684</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>3.056176</v>
       </c>
       <c r="O3">
-        <v>0.3252408090708014</v>
+        <v>0.3106459956672665</v>
       </c>
       <c r="P3">
-        <v>0.3252408090708013</v>
+        <v>0.3106459956672664</v>
       </c>
       <c r="Q3">
         <v>0.1180553248284444</v>
@@ -638,10 +638,10 @@
         <v>1.062497923456</v>
       </c>
       <c r="S3">
-        <v>0.3252408090708014</v>
+        <v>0.3106459956672665</v>
       </c>
       <c r="T3">
-        <v>0.3252408090708013</v>
+        <v>0.3106459956672664</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5041323333333333</v>
+        <v>0.5912873333333333</v>
       </c>
       <c r="N4">
-        <v>1.512397</v>
+        <v>1.773862</v>
       </c>
       <c r="O4">
-        <v>0.1609505551762244</v>
+        <v>0.1803047753684109</v>
       </c>
       <c r="P4">
-        <v>0.1609505551762244</v>
+        <v>0.1803047753684109</v>
       </c>
       <c r="Q4">
-        <v>0.05842154349244445</v>
+        <v>0.0685215297191111</v>
       </c>
       <c r="R4">
-        <v>0.5257938914320001</v>
+        <v>0.616693767472</v>
       </c>
       <c r="S4">
-        <v>0.1609505551762244</v>
+        <v>0.1803047753684109</v>
       </c>
       <c r="T4">
-        <v>0.1609505551762244</v>
+        <v>0.1803047753684109</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3504206666666667</v>
+        <v>0.4518883333333334</v>
       </c>
       <c r="N5">
-        <v>1.051262</v>
+        <v>1.355665</v>
       </c>
       <c r="O5">
-        <v>0.1118761823355032</v>
+        <v>0.1377970063622857</v>
       </c>
       <c r="P5">
-        <v>0.1118761823355032</v>
+        <v>0.1377970063622857</v>
       </c>
       <c r="Q5">
-        <v>0.04060861576355556</v>
+        <v>0.05236723013777779</v>
       </c>
       <c r="R5">
-        <v>0.365477541872</v>
+        <v>0.4713050712400001</v>
       </c>
       <c r="S5">
-        <v>0.1118761823355032</v>
+        <v>0.1377970063622857</v>
       </c>
       <c r="T5">
-        <v>0.1118761823355032</v>
+        <v>0.1377970063622857</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4174826666666667</v>
+        <v>0.5973363333333334</v>
       </c>
       <c r="N6">
-        <v>1.252448</v>
+        <v>1.792009</v>
       </c>
       <c r="O6">
-        <v>0.1332865649226704</v>
+        <v>0.1821493330389685</v>
       </c>
       <c r="P6">
-        <v>0.1332865649226704</v>
+        <v>0.1821493330389685</v>
       </c>
       <c r="Q6">
-        <v>0.04838011798755557</v>
+        <v>0.06922252010044445</v>
       </c>
       <c r="R6">
-        <v>0.4354210618880001</v>
+        <v>0.623002680904</v>
       </c>
       <c r="S6">
-        <v>0.1332865649226704</v>
+        <v>0.1821493330389685</v>
       </c>
       <c r="T6">
-        <v>0.1332865649226704</v>
+        <v>0.1821493330389685</v>
       </c>
     </row>
   </sheetData>
